--- a/EGYEB/adatbázis_terv.xlsx
+++ b/EGYEB/adatbázis_terv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEGOSZTAS\project-2\EGYEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2450AB-E713-4CB8-985D-47B776363892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D2F5E-7661-4A30-AA25-48C01CBEBFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Osztályok" sheetId="1" r:id="rId1"/>
@@ -8065,8 +8065,8 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30013,8 +30013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30166,9 +30166,6 @@
       <c r="A15" s="15" t="s">
         <v>1858</v>
       </c>
-      <c r="H15" s="34" t="s">
-        <v>1990</v>
-      </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -30177,9 +30174,8 @@
       <c r="B16" s="24" t="s">
         <v>1859</v>
       </c>
-      <c r="H16" t="str">
-        <f>CONCATENATE("new cMvTipus(){MvTipusNev=""",A16,""", Leiras=""",B16,""", Created=DateTime.Now, LastModified=DateTime.Now},")</f>
-        <v>new cMvTipus(){MvTipusNev="mvtipus", Leiras="leiras", Created=DateTime.Now, LastModified=DateTime.Now},</v>
+      <c r="H16" s="34" t="s">
+        <v>1990</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30200,6 +30196,10 @@
       </c>
       <c r="B18" s="27" t="s">
         <v>20</v>
+      </c>
+      <c r="H18" t="str">
+        <f>CONCATENATE("new cMvTipus(){MvTipusNev=""",A18,""", Leiras=""",B18,""", Created=DateTime.Now, LastModified=DateTime.Now},")</f>
+        <v>new cMvTipus(){MvTipusNev="na", Leiras="ismeretlen", Created=DateTime.Now, LastModified=DateTime.Now},</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
